--- a/Codes/ML_models/Models/All_Results/RNN_Results/TransferLearning_LSTM/Average_Metrics_Per_Lambda.xlsx
+++ b/Codes/ML_models/Models/All_Results/RNN_Results/TransferLearning_LSTM/Average_Metrics_Per_Lambda.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="36">
   <si>
     <t>Lambda</t>
   </si>
@@ -34,28 +34,34 @@
     <t>Average Specificity</t>
   </si>
   <si>
-    <t>98.19%</t>
-  </si>
-  <si>
-    <t>98.36%</t>
-  </si>
-  <si>
-    <t>98.54%</t>
-  </si>
-  <si>
-    <t>98.90%</t>
-  </si>
-  <si>
-    <t>99.08%</t>
-  </si>
-  <si>
-    <t>99.62%</t>
-  </si>
-  <si>
-    <t>89.29%</t>
-  </si>
-  <si>
-    <t>90.24%</t>
+    <t>97.46%</t>
+  </si>
+  <si>
+    <t>97.80%</t>
+  </si>
+  <si>
+    <t>97.98%</t>
+  </si>
+  <si>
+    <t>98.33%</t>
+  </si>
+  <si>
+    <t>98.52%</t>
+  </si>
+  <si>
+    <t>98.88%</t>
+  </si>
+  <si>
+    <t>99.42%</t>
+  </si>
+  <si>
+    <t>83.81%</t>
+  </si>
+  <si>
+    <t>87.81%</t>
+  </si>
+  <si>
+    <t>89.24%</t>
   </si>
   <si>
     <t>91.90%</t>
@@ -64,49 +70,55 @@
     <t>95.24%</t>
   </si>
   <si>
-    <t>96.67%</t>
-  </si>
-  <si>
     <t>98.00%</t>
   </si>
   <si>
+    <t>86.90%</t>
+  </si>
+  <si>
     <t>88.33%</t>
   </si>
   <si>
-    <t>90.00%</t>
-  </si>
-  <si>
-    <t>87.22%</t>
-  </si>
-  <si>
-    <t>87.95%</t>
+    <t>93.33%</t>
+  </si>
+  <si>
+    <t>95.00%</t>
+  </si>
+  <si>
+    <t>83.56%</t>
+  </si>
+  <si>
+    <t>86.00%</t>
+  </si>
+  <si>
+    <t>86.66%</t>
+  </si>
+  <si>
+    <t>87.93%</t>
   </si>
   <si>
     <t>88.70%</t>
   </si>
   <si>
-    <t>90.99%</t>
-  </si>
-  <si>
-    <t>91.76%</t>
-  </si>
-  <si>
-    <t>96.89%</t>
-  </si>
-  <si>
-    <t>98.81%</t>
-  </si>
-  <si>
-    <t>99.00%</t>
+    <t>92.99%</t>
+  </si>
+  <si>
+    <t>95.56%</t>
+  </si>
+  <si>
+    <t>98.22%</t>
+  </si>
+  <si>
+    <t>98.60%</t>
+  </si>
+  <si>
+    <t>98.80%</t>
   </si>
   <si>
     <t>99.20%</t>
   </si>
   <si>
     <t>99.40%</t>
-  </si>
-  <si>
-    <t>99.60%</t>
   </si>
   <si>
     <t>99.80%</t>
@@ -501,16 +513,16 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -521,16 +533,16 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -538,19 +550,19 @@
         <v>0.6</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -558,19 +570,19 @@
         <v>0.65</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F5" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -578,19 +590,19 @@
         <v>0.7</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F6" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -598,19 +610,19 @@
         <v>0.75</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F7" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -618,19 +630,19 @@
         <v>0.8</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E8" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -638,19 +650,19 @@
         <v>0.85</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E9" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F9" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -658,19 +670,19 @@
         <v>0.9</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E10" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F10" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/Codes/ML_models/Models/All_Results/RNN_Results/TransferLearning_LSTM/Average_Metrics_Per_Lambda.xlsx
+++ b/Codes/ML_models/Models/All_Results/RNN_Results/TransferLearning_LSTM/Average_Metrics_Per_Lambda.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="20">
   <si>
     <t>Lambda</t>
   </si>
@@ -34,94 +34,46 @@
     <t>Average Specificity</t>
   </si>
   <si>
-    <t>97.46%</t>
-  </si>
-  <si>
-    <t>97.80%</t>
-  </si>
-  <si>
-    <t>97.98%</t>
-  </si>
-  <si>
-    <t>98.33%</t>
-  </si>
-  <si>
-    <t>98.52%</t>
-  </si>
-  <si>
-    <t>98.88%</t>
-  </si>
-  <si>
-    <t>99.42%</t>
-  </si>
-  <si>
-    <t>83.81%</t>
-  </si>
-  <si>
-    <t>87.81%</t>
-  </si>
-  <si>
-    <t>89.24%</t>
-  </si>
-  <si>
-    <t>91.90%</t>
-  </si>
-  <si>
-    <t>95.24%</t>
-  </si>
-  <si>
-    <t>98.00%</t>
-  </si>
-  <si>
-    <t>86.90%</t>
-  </si>
-  <si>
-    <t>88.33%</t>
+    <t>63.61%</t>
+  </si>
+  <si>
+    <t>92.14%</t>
+  </si>
+  <si>
+    <t>95.00%</t>
+  </si>
+  <si>
+    <t>97.14%</t>
+  </si>
+  <si>
+    <t>100.00%</t>
+  </si>
+  <si>
+    <t>67.86%</t>
   </si>
   <si>
     <t>93.33%</t>
   </si>
   <si>
-    <t>95.00%</t>
-  </si>
-  <si>
-    <t>83.56%</t>
-  </si>
-  <si>
-    <t>86.00%</t>
-  </si>
-  <si>
-    <t>86.66%</t>
-  </si>
-  <si>
-    <t>87.93%</t>
-  </si>
-  <si>
-    <t>88.70%</t>
-  </si>
-  <si>
-    <t>92.99%</t>
-  </si>
-  <si>
-    <t>95.56%</t>
-  </si>
-  <si>
-    <t>98.22%</t>
-  </si>
-  <si>
-    <t>98.60%</t>
-  </si>
-  <si>
-    <t>98.80%</t>
-  </si>
-  <si>
-    <t>99.20%</t>
-  </si>
-  <si>
-    <t>99.40%</t>
-  </si>
-  <si>
-    <t>99.80%</t>
+    <t>96.00%</t>
+  </si>
+  <si>
+    <t>70.00%</t>
+  </si>
+  <si>
+    <t>64.65%</t>
+  </si>
+  <si>
+    <t>93.14%</t>
+  </si>
+  <si>
+    <t>97.78%</t>
+  </si>
+  <si>
+    <t>58.00%</t>
+  </si>
+  <si>
+    <t>90.00%</t>
   </si>
 </sst>
 </file>
@@ -513,16 +465,16 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -533,16 +485,16 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
         <v>19</v>
-      </c>
-      <c r="E3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -553,16 +505,16 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
         <v>19</v>
-      </c>
-      <c r="E4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -573,16 +525,16 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
         <v>19</v>
-      </c>
-      <c r="E5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -590,19 +542,19 @@
         <v>0.7</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
         <v>19</v>
-      </c>
-      <c r="E6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -610,19 +562,19 @@
         <v>0.75</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="F7" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -630,19 +582,19 @@
         <v>0.8</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
         <v>17</v>
       </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" t="s">
-        <v>28</v>
-      </c>
       <c r="F8" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -650,19 +602,19 @@
         <v>0.85</v>
       </c>
       <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" t="s">
         <v>12</v>
-      </c>
-      <c r="C9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -670,19 +622,19 @@
         <v>0.9</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Codes/ML_models/Models/All_Results/RNN_Results/TransferLearning_LSTM/Average_Metrics_Per_Lambda.xlsx
+++ b/Codes/ML_models/Models/All_Results/RNN_Results/TransferLearning_LSTM/Average_Metrics_Per_Lambda.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="9">
   <si>
     <t>Lambda</t>
   </si>
@@ -34,46 +34,13 @@
     <t>Average Specificity</t>
   </si>
   <si>
-    <t>63.61%</t>
-  </si>
-  <si>
-    <t>92.14%</t>
-  </si>
-  <si>
-    <t>95.00%</t>
-  </si>
-  <si>
-    <t>97.14%</t>
-  </si>
-  <si>
-    <t>100.00%</t>
-  </si>
-  <si>
-    <t>67.86%</t>
-  </si>
-  <si>
-    <t>93.33%</t>
-  </si>
-  <si>
-    <t>96.00%</t>
-  </si>
-  <si>
-    <t>70.00%</t>
-  </si>
-  <si>
-    <t>64.65%</t>
-  </si>
-  <si>
-    <t>93.14%</t>
-  </si>
-  <si>
-    <t>97.78%</t>
-  </si>
-  <si>
-    <t>58.00%</t>
-  </si>
-  <si>
-    <t>90.00%</t>
+    <t>47.73%</t>
+  </si>
+  <si>
+    <t>22.73%</t>
+  </si>
+  <si>
+    <t>25.00%</t>
   </si>
 </sst>
 </file>
@@ -465,16 +432,16 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -482,19 +449,19 @@
         <v>0.55</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -502,19 +469,19 @@
         <v>0.6</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -522,19 +489,19 @@
         <v>0.65</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -542,19 +509,19 @@
         <v>0.7</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -562,19 +529,19 @@
         <v>0.75</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -582,19 +549,19 @@
         <v>0.8</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -602,19 +569,19 @@
         <v>0.85</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -622,19 +589,19 @@
         <v>0.9</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Codes/ML_models/Models/All_Results/RNN_Results/TransferLearning_LSTM/Average_Metrics_Per_Lambda.xlsx
+++ b/Codes/ML_models/Models/All_Results/RNN_Results/TransferLearning_LSTM/Average_Metrics_Per_Lambda.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
   <si>
     <t>Lambda</t>
   </si>
@@ -34,13 +34,112 @@
     <t>Average Specificity</t>
   </si>
   <si>
-    <t>47.73%</t>
-  </si>
-  <si>
-    <t>22.73%</t>
-  </si>
-  <si>
-    <t>25.00%</t>
+    <t>93.48%</t>
+  </si>
+  <si>
+    <t>94.18%</t>
+  </si>
+  <si>
+    <t>94.53%</t>
+  </si>
+  <si>
+    <t>94.70%</t>
+  </si>
+  <si>
+    <t>95.06%</t>
+  </si>
+  <si>
+    <t>95.42%</t>
+  </si>
+  <si>
+    <t>95.93%</t>
+  </si>
+  <si>
+    <t>96.65%</t>
+  </si>
+  <si>
+    <t>97.20%</t>
+  </si>
+  <si>
+    <t>53.98%</t>
+  </si>
+  <si>
+    <t>57.73%</t>
+  </si>
+  <si>
+    <t>63.39%</t>
+  </si>
+  <si>
+    <t>66.06%</t>
+  </si>
+  <si>
+    <t>68.06%</t>
+  </si>
+  <si>
+    <t>72.35%</t>
+  </si>
+  <si>
+    <t>75.90%</t>
+  </si>
+  <si>
+    <t>85.24%</t>
+  </si>
+  <si>
+    <t>91.67%</t>
+  </si>
+  <si>
+    <t>93.33%</t>
+  </si>
+  <si>
+    <t>95.00%</t>
+  </si>
+  <si>
+    <t>64.79%</t>
+  </si>
+  <si>
+    <t>67.08%</t>
+  </si>
+  <si>
+    <t>69.19%</t>
+  </si>
+  <si>
+    <t>69.74%</t>
+  </si>
+  <si>
+    <t>73.79%</t>
+  </si>
+  <si>
+    <t>75.40%</t>
+  </si>
+  <si>
+    <t>77.55%</t>
+  </si>
+  <si>
+    <t>80.10%</t>
+  </si>
+  <si>
+    <t>82.60%</t>
+  </si>
+  <si>
+    <t>94.04%</t>
+  </si>
+  <si>
+    <t>94.85%</t>
+  </si>
+  <si>
+    <t>95.22%</t>
+  </si>
+  <si>
+    <t>95.61%</t>
+  </si>
+  <si>
+    <t>95.98%</t>
+  </si>
+  <si>
+    <t>96.77%</t>
+  </si>
+  <si>
+    <t>97.38%</t>
   </si>
 </sst>
 </file>
@@ -432,16 +531,16 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -449,19 +548,19 @@
         <v>0.55</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="F3" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -469,19 +568,19 @@
         <v>0.6</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="F4" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -489,19 +588,19 @@
         <v>0.65</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="F5" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -509,19 +608,19 @@
         <v>0.7</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="F6" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -529,19 +628,19 @@
         <v>0.75</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="F7" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -549,19 +648,19 @@
         <v>0.8</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="F8" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -569,19 +668,19 @@
         <v>0.85</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="E9" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="F9" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -589,19 +688,19 @@
         <v>0.9</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="E10" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="F10" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/Codes/ML_models/Models/All_Results/RNN_Results/TransferLearning_LSTM/Average_Metrics_Per_Lambda.xlsx
+++ b/Codes/ML_models/Models/All_Results/RNN_Results/TransferLearning_LSTM/Average_Metrics_Per_Lambda.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="9">
   <si>
     <t>Lambda</t>
   </si>
@@ -34,112 +34,13 @@
     <t>Average Specificity</t>
   </si>
   <si>
-    <t>93.48%</t>
-  </si>
-  <si>
-    <t>94.18%</t>
-  </si>
-  <si>
-    <t>94.53%</t>
-  </si>
-  <si>
-    <t>94.70%</t>
-  </si>
-  <si>
-    <t>95.06%</t>
-  </si>
-  <si>
-    <t>95.42%</t>
-  </si>
-  <si>
-    <t>95.93%</t>
-  </si>
-  <si>
-    <t>96.65%</t>
-  </si>
-  <si>
-    <t>97.20%</t>
-  </si>
-  <si>
-    <t>53.98%</t>
-  </si>
-  <si>
-    <t>57.73%</t>
-  </si>
-  <si>
-    <t>63.39%</t>
-  </si>
-  <si>
-    <t>66.06%</t>
-  </si>
-  <si>
-    <t>68.06%</t>
-  </si>
-  <si>
-    <t>72.35%</t>
-  </si>
-  <si>
-    <t>75.90%</t>
-  </si>
-  <si>
-    <t>85.24%</t>
-  </si>
-  <si>
-    <t>91.67%</t>
-  </si>
-  <si>
-    <t>93.33%</t>
-  </si>
-  <si>
-    <t>95.00%</t>
-  </si>
-  <si>
-    <t>64.79%</t>
-  </si>
-  <si>
-    <t>67.08%</t>
-  </si>
-  <si>
-    <t>69.19%</t>
-  </si>
-  <si>
-    <t>69.74%</t>
-  </si>
-  <si>
-    <t>73.79%</t>
-  </si>
-  <si>
-    <t>75.40%</t>
-  </si>
-  <si>
-    <t>77.55%</t>
-  </si>
-  <si>
-    <t>80.10%</t>
-  </si>
-  <si>
-    <t>82.60%</t>
-  </si>
-  <si>
-    <t>94.04%</t>
-  </si>
-  <si>
-    <t>94.85%</t>
-  </si>
-  <si>
-    <t>95.22%</t>
-  </si>
-  <si>
-    <t>95.61%</t>
-  </si>
-  <si>
-    <t>95.98%</t>
-  </si>
-  <si>
-    <t>96.77%</t>
-  </si>
-  <si>
-    <t>97.38%</t>
+    <t>56.82%</t>
+  </si>
+  <si>
+    <t>34.09%</t>
+  </si>
+  <si>
+    <t>22.73%</t>
   </si>
 </sst>
 </file>
@@ -531,16 +432,16 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -548,19 +449,19 @@
         <v>0.55</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -568,19 +469,19 @@
         <v>0.6</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -588,19 +489,19 @@
         <v>0.65</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -608,19 +509,19 @@
         <v>0.7</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="F6" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -628,19 +529,19 @@
         <v>0.75</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="F7" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -648,19 +549,19 @@
         <v>0.8</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -668,19 +569,19 @@
         <v>0.85</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -688,19 +589,19 @@
         <v>0.9</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="E10" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="F10" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
